--- a/data/processed/state_overviews/wyoming_overview.xlsx
+++ b/data/processed/state_overviews/wyoming_overview.xlsx
@@ -389,8 +389,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>362</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>362</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -420,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -464,8 +466,10 @@
           <t>Albany County</t>
         </is>
       </c>
-      <c r="B2">
-        <v>34</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -494,8 +498,10 @@
           <t>Big Horn County</t>
         </is>
       </c>
-      <c r="B3">
-        <v>3</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -524,8 +530,10 @@
           <t>Campbell County</t>
         </is>
       </c>
-      <c r="B4">
-        <v>15</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -554,8 +562,10 @@
           <t>Carbon County</t>
         </is>
       </c>
-      <c r="B5">
-        <v>8</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -584,8 +594,10 @@
           <t>Converse County</t>
         </is>
       </c>
-      <c r="B6">
-        <v>8</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -614,8 +626,10 @@
           <t>Crook County</t>
         </is>
       </c>
-      <c r="B7">
-        <v>5</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -644,8 +658,10 @@
           <t>Fremont County</t>
         </is>
       </c>
-      <c r="B8">
-        <v>30</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -674,8 +690,10 @@
           <t>Goshen County</t>
         </is>
       </c>
-      <c r="B9">
-        <v>6</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -704,8 +722,10 @@
           <t>Hot Springs County</t>
         </is>
       </c>
-      <c r="B10">
-        <v>5</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -734,8 +754,10 @@
           <t>Johnson County</t>
         </is>
       </c>
-      <c r="B11">
-        <v>6</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -764,8 +786,10 @@
           <t>Laramie County</t>
         </is>
       </c>
-      <c r="B12">
-        <v>53</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -794,8 +818,10 @@
           <t>Lincoln County</t>
         </is>
       </c>
-      <c r="B13">
-        <v>8</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -824,8 +850,10 @@
           <t>Natrona County</t>
         </is>
       </c>
-      <c r="B14">
-        <v>38</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -854,8 +882,10 @@
           <t>Niobrara County</t>
         </is>
       </c>
-      <c r="B15">
-        <v>1</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -884,8 +914,10 @@
           <t>Park County</t>
         </is>
       </c>
-      <c r="B16">
-        <v>26</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -914,8 +946,10 @@
           <t>Platte County</t>
         </is>
       </c>
-      <c r="B17">
-        <v>4</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -944,8 +978,10 @@
           <t>Sheridan County</t>
         </is>
       </c>
-      <c r="B18">
-        <v>31</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -974,8 +1010,10 @@
           <t>Sublette County</t>
         </is>
       </c>
-      <c r="B19">
-        <v>7</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1004,8 +1042,10 @@
           <t>Sweetwater County</t>
         </is>
       </c>
-      <c r="B20">
-        <v>12</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1034,8 +1074,10 @@
           <t>Teton County</t>
         </is>
       </c>
-      <c r="B21">
-        <v>45</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1064,8 +1106,10 @@
           <t>Uinta County</t>
         </is>
       </c>
-      <c r="B22">
-        <v>6</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1094,8 +1138,10 @@
           <t>Washakie County</t>
         </is>
       </c>
-      <c r="B23">
-        <v>9</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1124,8 +1170,10 @@
           <t>Weston County</t>
         </is>
       </c>
-      <c r="B24">
-        <v>2</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1145,6 +1193,38 @@
       <c r="F24" t="inlineStr">
         <is>
           <t>50.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>362</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>$261,596,078</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.11%</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>-25.29%</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>68.78%</t>
         </is>
       </c>
     </row>
@@ -1199,8 +1279,10 @@
           <t>Congressional District (at Large)</t>
         </is>
       </c>
-      <c r="B2">
-        <v>362</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>362</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1229,8 +1311,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B3">
-        <v>362</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>362</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1304,8 +1388,10 @@
           <t>Between $100K and $499K</t>
         </is>
       </c>
-      <c r="B2">
-        <v>151</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1334,8 +1420,10 @@
           <t>Between $1M and $4.99M</t>
         </is>
       </c>
-      <c r="B3">
-        <v>92</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1364,8 +1452,10 @@
           <t>Between $500K and $999K</t>
         </is>
       </c>
-      <c r="B4">
-        <v>68</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1394,8 +1484,10 @@
           <t>Between $5M and $9.99M</t>
         </is>
       </c>
-      <c r="B5">
-        <v>21</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1424,8 +1516,10 @@
           <t>Greater than $10M</t>
         </is>
       </c>
-      <c r="B6">
-        <v>9</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1454,8 +1548,10 @@
           <t>Less than $100K</t>
         </is>
       </c>
-      <c r="B7">
-        <v>21</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1484,8 +1580,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B8">
-        <v>362</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>362</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1559,8 +1657,10 @@
           <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
-      <c r="B2">
-        <v>34</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1589,8 +1689,10 @@
           <t>Education (Excluding Universities)</t>
         </is>
       </c>
-      <c r="B3">
-        <v>25</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1619,8 +1721,10 @@
           <t>Environment and Animals</t>
         </is>
       </c>
-      <c r="B4">
-        <v>26</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1649,8 +1753,10 @@
           <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
-      <c r="B5">
-        <v>31</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1679,8 +1785,10 @@
           <t>Hospitals</t>
         </is>
       </c>
-      <c r="B6">
-        <v>4</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1709,8 +1817,10 @@
           <t>Human Services</t>
         </is>
       </c>
-      <c r="B7">
-        <v>116</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1739,8 +1849,10 @@
           <t>International, Foreign Affairs</t>
         </is>
       </c>
-      <c r="B8">
-        <v>1</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1769,8 +1881,10 @@
           <t>Mutual/Membership Benefit</t>
         </is>
       </c>
-      <c r="B9">
-        <v>1</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1799,8 +1913,10 @@
           <t>Public, Societal Benefit</t>
         </is>
       </c>
-      <c r="B10">
-        <v>25</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1829,8 +1945,10 @@
           <t>Religion Related</t>
         </is>
       </c>
-      <c r="B11">
-        <v>3</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1859,8 +1977,10 @@
           <t>Unclassified</t>
         </is>
       </c>
-      <c r="B12">
-        <v>95</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1889,8 +2009,10 @@
           <t>Universities</t>
         </is>
       </c>
-      <c r="B13">
-        <v>1</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1919,8 +2041,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B14">
-        <v>362</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>362</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>

--- a/data/processed/state_overviews/wyoming_overview.xlsx
+++ b/data/processed/state_overviews/wyoming_overview.xlsx
@@ -364,27 +364,27 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
@@ -422,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -431,327 +431,327 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>County</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Albany County</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$22,859,903</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.31%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-22.35%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>70.59%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Big Horn County</t>
+          <t>Wyoming</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>362</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$618,245</t>
+          <t>$261,596,078</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.89%</t>
+          <t>6.11%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-94.38%</t>
+          <t>-25.29%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>68.78%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Campbell County</t>
+          <t>Albany County</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$10,704,662</t>
+          <t>$22,859,903</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.22%</t>
+          <t>8.31%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-11.89%</t>
+          <t>-22.35%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>60.00%</t>
+          <t>70.59%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Carbon County</t>
+          <t>Big Horn County</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$2,597,877</t>
+          <t>$618,245</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>19.73%</t>
+          <t>0.89%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-27.93%</t>
+          <t>-94.38%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Converse County</t>
+          <t>Campbell County</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$2,201,139</t>
+          <t>$10,704,662</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.46%</t>
+          <t>9.22%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-64.72%</t>
+          <t>-11.89%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>60.00%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Crook County</t>
+          <t>Carbon County</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$1,155,098</t>
+          <t>$2,597,877</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-0.14%</t>
+          <t>19.73%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-70.86%</t>
+          <t>-27.93%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>80.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Fremont County</t>
+          <t>Converse County</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$10,187,167</t>
+          <t>$2,201,139</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.82%</t>
+          <t>0.46%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-28.53%</t>
+          <t>-64.72%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>70.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Goshen County</t>
+          <t>Crook County</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$836,581</t>
+          <t>$1,155,098</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-6.52%</t>
+          <t>-0.14%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-12.57%</t>
+          <t>-70.86%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>83.33%</t>
+          <t>80.00%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Hot Springs County</t>
+          <t>Fremont County</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$5,362,449</t>
+          <t>$10,187,167</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-7.08%</t>
+          <t>4.82%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-7.34%</t>
+          <t>-28.53%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>80.00%</t>
+          <t>70.00%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Johnson County</t>
+          <t>Goshen County</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -761,470 +761,502 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$1,206,332</t>
+          <t>$836,581</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>5.42%</t>
+          <t>-6.52%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-19.10%</t>
+          <t>-12.57%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>83.33%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Laramie County</t>
+          <t>Hot Springs County</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$39,868,558</t>
+          <t>$5,362,449</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>7.20%</t>
+          <t>-7.08%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-42.76%</t>
+          <t>-7.34%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>69.81%</t>
+          <t>80.00%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Lincoln County</t>
+          <t>Johnson County</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$7,041,084</t>
+          <t>$1,206,332</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.93%</t>
+          <t>5.42%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-58.90%</t>
+          <t>-19.10%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>87.50%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Natrona County</t>
+          <t>Laramie County</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$34,296,227</t>
+          <t>$39,868,558</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3.18%</t>
+          <t>7.20%</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-17.46%</t>
+          <t>-42.76%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>73.68%</t>
+          <t>69.81%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Niobrara County</t>
+          <t>Lincoln County</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$281,332</t>
+          <t>$7,041,084</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-7.32%</t>
+          <t>4.93%</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-60.67%</t>
+          <t>-58.90%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>87.50%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Park County</t>
+          <t>Natrona County</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$13,837,147</t>
+          <t>$34,296,227</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3.66%</t>
+          <t>3.18%</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-14.79%</t>
+          <t>-17.46%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>69.23%</t>
+          <t>73.68%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Platte County</t>
+          <t>Niobrara County</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$15,233,564</t>
+          <t>$281,332</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>-2.27%</t>
+          <t>-7.32%</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>-93.95%</t>
+          <t>-60.67%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sheridan County</t>
+          <t>Park County</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$40,331,356</t>
+          <t>$13,837,147</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>14.30%</t>
+          <t>3.66%</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-14.17%</t>
+          <t>-14.79%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>64.52%</t>
+          <t>69.23%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sublette County</t>
+          <t>Platte County</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>$1,723,202</t>
+          <t>$15,233,564</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.04%</t>
+          <t>-2.27%</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-47.85%</t>
+          <t>-93.95%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>85.71%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sweetwater County</t>
+          <t>Sheridan County</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>$7,358,248</t>
+          <t>$40,331,356</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-0.02%</t>
+          <t>14.30%</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>-41.09%</t>
+          <t>-14.17%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>83.33%</t>
+          <t>64.52%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Teton County</t>
+          <t>Sublette County</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>$18,827,224</t>
+          <t>$1,723,202</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>19.70%</t>
+          <t>0.04%</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>7.89%</t>
+          <t>-47.85%</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>85.71%</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Uinta County</t>
+          <t>Sweetwater County</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>$10,992,548</t>
+          <t>$7,358,248</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2.23%</t>
+          <t>-0.02%</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>-70.59%</t>
+          <t>-41.09%</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>83.33%</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Washakie County</t>
+          <t>Teton County</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>$13,662,481</t>
+          <t>$18,827,224</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>-0.07%</t>
+          <t>19.70%</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>-74.82%</t>
+          <t>7.89%</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Weston County</t>
+          <t>Uinta County</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>$413,654</t>
+          <t>$10,992,548</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>7.71%</t>
+          <t>2.23%</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>-23.31%</t>
+          <t>-70.59%</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Washakie County</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>$261,596,078</t>
+          <t>$13,662,481</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>6.11%</t>
+          <t>-0.07%</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>-25.29%</t>
+          <t>-74.82%</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>68.78%</t>
+          <t>100.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Weston County</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>$413,654</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.71%</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>-23.31%</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1267,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1244,71 +1276,71 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Congressional District</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Congressional District (at Large)</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$261,596,078</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.11%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-25.29%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>68.78%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Wyoming</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1332,6 +1364,38 @@
         </is>
       </c>
       <c r="F3" t="inlineStr">
+        <is>
+          <t>68.78%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Congressional district (at large)</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>362</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>$261,596,078</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.11%</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>-25.29%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>68.78%</t>
         </is>
@@ -1358,34 +1422,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Between $100K and $499K</t>
+          <t>$100K to $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1417,128 +1481,128 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Between $1M and $4.99M</t>
+          <t>$10M or more</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$96,823,271</t>
+          <t>$68,482,519</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.85%</t>
+          <t>7.23%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-45.37%</t>
+          <t>-16.41%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>77.17%</t>
+          <t>77.78%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Between $500K and $999K</t>
+          <t>$1M to $4.9M</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>92</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$19,329,128</t>
+          <t>$96,823,271</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.64%</t>
+          <t>3.85%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-19.10%</t>
+          <t>-45.37%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>61.76%</t>
+          <t>77.17%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Between $5M and $9.99M</t>
+          <t>$500K to $999K</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>68</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$59,588,263</t>
+          <t>$19,329,128</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.41%</t>
+          <t>6.64%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-28.91%</t>
+          <t>-19.10%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>90.48%</t>
+          <t>61.76%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Greater than $10M</t>
+          <t>$5M to $9.9M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$68,482,519</t>
+          <t>$59,588,263</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7.23%</t>
+          <t>3.41%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-16.41%</t>
+          <t>-28.91%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>77.78%</t>
+          <t>90.48%</t>
         </is>
       </c>
     </row>
@@ -1627,34 +1691,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, Culture, and Humanities</t>
+          <t>Arts, culture, and humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1686,7 +1750,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education (Excluding Universities)</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1718,7 +1782,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and Animals</t>
+          <t>Environment and animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1750,7 +1814,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health (Excluding Hospitals)</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1814,7 +1878,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human Services</t>
+          <t>Human services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1846,7 +1910,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, Foreign Affairs</t>
+          <t>International, foreign affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1878,91 +1942,91 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Mutual/Membership Benefit</t>
+          <t>Public, societal benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$15,625</t>
+          <t>$7,313,952</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>32.95%</t>
+          <t>4.14%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>21.32%</t>
+          <t>-25.16%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>68.00%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Public, Societal Benefit</t>
+          <t>Religion-related</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$7,313,952</t>
+          <t>$291,191</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.14%</t>
+          <t>26.65%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-25.16%</t>
+          <t>18.00%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>68.00%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Religion Related</t>
+          <t>Mutual/membership benefit</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$291,191</t>
+          <t>$15,625</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>26.65%</t>
+          <t>32.95%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>18.00%</t>
+          <t>21.32%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1974,64 +2038,64 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$94,569,192</t>
+          <t>$1,116,784</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3.19%</t>
+          <t>10.93%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-55.86%</t>
+          <t>-9.73%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>78.95%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>95</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$1,116,784</t>
+          <t>$94,569,192</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>10.93%</t>
+          <t>3.19%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-9.73%</t>
+          <t>-55.86%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>78.95%</t>
         </is>
       </c>
     </row>

--- a/data/processed/state_overviews/wyoming_overview.xlsx
+++ b/data/processed/state_overviews/wyoming_overview.xlsx
@@ -364,54 +364,54 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>68.78%</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>362</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>$261,596,078</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>6.11%</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>-25.29%</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>68.78%</t>
         </is>
       </c>
     </row>
@@ -436,27 +436,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -468,27 +468,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -500,27 +500,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>68.78%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>362</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$261,596,078</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>6.11%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-25.29%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>68.78%</t>
         </is>
       </c>
     </row>
@@ -532,27 +532,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>70.59%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>34</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$22,859,903</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>8.31%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-22.35%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>70.59%</t>
         </is>
       </c>
     </row>
@@ -564,27 +564,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$618,245</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>0.89%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-94.38%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -596,27 +596,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>15</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$10,704,662</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>9.22%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-11.89%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>60.00%</t>
         </is>
       </c>
     </row>
@@ -628,27 +628,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$2,597,877</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>19.73%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-27.93%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -660,27 +660,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$2,201,139</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>0.46%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-64.72%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -692,27 +692,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>$1,155,098</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>-0.14%</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>-70.86%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>80.00%</t>
         </is>
       </c>
     </row>
@@ -724,27 +724,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>70.00%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>30</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>$10,187,167</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>4.82%</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>-28.53%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>70.00%</t>
         </is>
       </c>
     </row>
@@ -756,27 +756,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>83.33%</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>$836,581</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>-6.52%</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>-12.57%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>83.33%</t>
         </is>
       </c>
     </row>
@@ -788,27 +788,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>$5,362,449</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>-7.08%</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>-7.34%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>80.00%</t>
         </is>
       </c>
     </row>
@@ -820,27 +820,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>$1,206,332</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>5.42%</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>-19.10%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -852,27 +852,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>69.81%</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>53</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>$39,868,558</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>7.20%</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>-42.76%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>69.81%</t>
         </is>
       </c>
     </row>
@@ -884,27 +884,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>87.50%</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>$7,041,084</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>4.93%</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>-58.90%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>87.50%</t>
         </is>
       </c>
     </row>
@@ -916,27 +916,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>73.68%</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>38</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>$34,296,227</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>3.18%</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>-17.46%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>73.68%</t>
         </is>
       </c>
     </row>
@@ -948,27 +948,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>$281,332</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>-7.32%</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>-60.67%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -980,27 +980,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>69.23%</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>26</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>$13,837,147</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>3.66%</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>-14.79%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>69.23%</t>
         </is>
       </c>
     </row>
@@ -1012,27 +1012,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>$15,233,564</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>-2.27%</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>-93.95%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -1044,27 +1044,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>64.52%</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>31</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>$40,331,356</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>14.30%</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>-14.17%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>64.52%</t>
         </is>
       </c>
     </row>
@@ -1076,27 +1076,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>85.71%</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>$1,723,202</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>0.04%</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>-47.85%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>85.71%</t>
         </is>
       </c>
     </row>
@@ -1108,27 +1108,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>83.33%</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>$7,358,248</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>-0.02%</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>-41.09%</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>83.33%</t>
         </is>
       </c>
     </row>
@@ -1140,27 +1140,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>45</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>$18,827,224</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>19.70%</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>7.89%</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>33.33%</t>
         </is>
       </c>
     </row>
@@ -1172,27 +1172,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>$10,992,548</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2.23%</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>-70.59%</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1204,27 +1204,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>$13,662,481</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>-0.07%</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>-74.82%</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1236,27 +1236,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>$413,654</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>7.71%</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>-23.31%</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -1281,27 +1281,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -1313,27 +1313,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -1345,59 +1345,59 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>68.78%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>362</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$261,596,078</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>6.11%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-25.29%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>68.78%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Congressional district (at large)</t>
+          <t>Congressional District (at Large)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>68.78%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>362</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$261,596,078</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>6.11%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-25.29%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>68.78%</t>
         </is>
       </c>
     </row>
@@ -1422,187 +1422,187 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>$100K to $499K</t>
+          <t>Between $100K and $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>66.23%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>151</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$16,639,897</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>7.43%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-25.16%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>66.23%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>$10M or more</t>
+          <t>Between $1M and $4.99M</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>77.17%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$68,482,519</t>
+          <t>92</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.23%</t>
+          <t>$96,823,271</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-16.41%</t>
+          <t>3.85%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>77.78%</t>
+          <t>-45.37%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>$1M to $4.9M</t>
+          <t>Between $500K and $999K</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>61.76%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$96,823,271</t>
+          <t>68</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.85%</t>
+          <t>$19,329,128</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-45.37%</t>
+          <t>6.64%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>77.17%</t>
+          <t>-19.10%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>$500K to $999K</t>
+          <t>Between $5M and $9.99M</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>90.48%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$19,329,128</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.64%</t>
+          <t>$59,588,263</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-19.10%</t>
+          <t>3.41%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>61.76%</t>
+          <t>-28.91%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>$5M to $9.9M</t>
+          <t>Greater than $10M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>77.78%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$59,588,263</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.41%</t>
+          <t>$68,482,519</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-28.91%</t>
+          <t>7.23%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>90.48%</t>
+          <t>-16.41%</t>
         </is>
       </c>
     </row>
@@ -1614,27 +1614,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>47.62%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>21</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$733,000</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>34.00%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>12.72%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>47.62%</t>
         </is>
       </c>
     </row>
@@ -1646,27 +1646,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>68.78%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>362</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$261,596,078</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>6.11%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-25.29%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>68.78%</t>
         </is>
       </c>
     </row>
@@ -1691,155 +1691,155 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, culture, and humanities</t>
+          <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>47.06%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>34</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$9,564,629</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>15.73%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.51%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>47.06%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Education (Excluding Universities)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>25</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$30,934,893</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>3.55%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-48.73%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>80.00%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and animals</t>
+          <t>Environment and Animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>46.15%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>26</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$3,786,550</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>22.67%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2.67%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>46.15%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>77.42%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>31</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$26,467,642</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>8.49%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-30.44%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>77.42%</t>
         </is>
       </c>
     </row>
@@ -1851,251 +1851,251 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$7,687,368</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>12.44%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>7.47%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human services</t>
+          <t>Human Services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>70.69%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>116</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$79,818,525</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>5.77%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-26.25%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>70.69%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, foreign affairs</t>
+          <t>International, Foreign Affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$29,727</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>10.18%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1.40%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Public, societal benefit</t>
+          <t>Mutual/Membership Benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$7,313,952</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.14%</t>
+          <t>$15,625</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-25.16%</t>
+          <t>32.95%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>68.00%</t>
+          <t>21.32%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Religion-related</t>
+          <t>Public, Societal Benefit</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>68.00%</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$291,191</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>26.65%</t>
+          <t>$7,313,952</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>18.00%</t>
+          <t>4.14%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>-25.16%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Mutual/membership benefit</t>
+          <t>Religion Related</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$15,625</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>32.95%</t>
+          <t>$291,191</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>21.32%</t>
+          <t>26.65%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>18.00%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>78.95%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$1,116,784</t>
+          <t>95</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>10.93%</t>
+          <t>$94,569,192</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-9.73%</t>
+          <t>3.19%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>-55.86%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>100.00%</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$94,569,192</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3.19%</t>
+          <t>$1,116,784</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-55.86%</t>
+          <t>10.93%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>78.95%</t>
+          <t>-9.73%</t>
         </is>
       </c>
     </row>
@@ -2107,27 +2107,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>68.78%</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>362</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>$261,596,078</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>6.11%</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>-25.29%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>68.78%</t>
         </is>
       </c>
     </row>
